--- a/runs/run186/NotionalETEOutput186.xlsx
+++ b/runs/run186/NotionalETEOutput186.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_366.MISSILE_HIGHWIND2_366</t>
+    <t>MISSILE_HELLMASKER1_291.MISSILE_HELLMASKER1_291</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1459.297067206154</v>
+        <v>-1519.047766602913</v>
       </c>
       <c r="J2">
-        <v>1953.518497121312</v>
+        <v>2082.785426642935</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1490.761341045774</v>
+        <v>-1530.605134009935</v>
       </c>
       <c r="J3">
-        <v>1988.454764582502</v>
+        <v>1863.729433473612</v>
       </c>
       <c r="K3">
-        <v>302.8944379450509</v>
+        <v>308.6779868958293</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1419.197052710711</v>
+        <v>-1401.585068709558</v>
       </c>
       <c r="J4">
-        <v>1920.744407033158</v>
+        <v>1978.468607649564</v>
       </c>
       <c r="K4">
-        <v>571.6125195499749</v>
+        <v>580.216770368322</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1351.111703097708</v>
+        <v>-1345.464051003259</v>
       </c>
       <c r="J5">
-        <v>1837.802409239359</v>
+        <v>1886.444168510995</v>
       </c>
       <c r="K5">
-        <v>833.412360767229</v>
+        <v>876.7712859514766</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1338.926814921594</v>
+        <v>-1445.131398220353</v>
       </c>
       <c r="J6">
-        <v>1791.656137999862</v>
+        <v>1748.745690792945</v>
       </c>
       <c r="K6">
-        <v>1102.358485152923</v>
+        <v>1152.240890751439</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1285.263588885632</v>
+        <v>-1387.464075803505</v>
       </c>
       <c r="J7">
-        <v>1669.325957824598</v>
+        <v>1671.557217046048</v>
       </c>
       <c r="K7">
-        <v>1316.084111093247</v>
+        <v>1410.158063938965</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1298.853119084047</v>
+        <v>-1287.875848729411</v>
       </c>
       <c r="J8">
-        <v>1754.754533636366</v>
+        <v>1625.854271951778</v>
       </c>
       <c r="K8">
-        <v>1623.036761664642</v>
+        <v>1606.15514652229</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.5082001860338</v>
+        <v>-96.00194793395545</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1278.947298223504</v>
+        <v>-1300.248797727112</v>
       </c>
       <c r="J9">
-        <v>1585.509959521026</v>
+        <v>1664.360572138085</v>
       </c>
       <c r="K9">
-        <v>1797.922389186626</v>
+        <v>1858.718223612016</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>224.0316366402938</v>
+        <v>223.6007498747079</v>
       </c>
       <c r="G10">
-        <v>-80.1796612641299</v>
+        <v>-85.90430765989964</v>
       </c>
       <c r="H10">
-        <v>828.9569900974465</v>
+        <v>830.3872504594794</v>
       </c>
       <c r="I10">
-        <v>-1210.142555901175</v>
+        <v>-1245.725279323687</v>
       </c>
       <c r="J10">
-        <v>1672.659978116283</v>
+        <v>1622.438376617452</v>
       </c>
       <c r="K10">
-        <v>2009.216702727268</v>
+        <v>2084.613544581381</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.6737197746675</v>
+        <v>161.3178475116418</v>
       </c>
       <c r="G11">
-        <v>-66.94713646533992</v>
+        <v>-63.7654781423455</v>
       </c>
       <c r="H11">
-        <v>1043.871046793454</v>
+        <v>1096.352940597636</v>
       </c>
       <c r="I11">
-        <v>-1180.699006468431</v>
+        <v>-1201.446109102751</v>
       </c>
       <c r="J11">
-        <v>1495.987813908473</v>
+        <v>1570.133521044645</v>
       </c>
       <c r="K11">
-        <v>2079.909241066014</v>
+        <v>2197.217934672368</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.7370854224827</v>
+        <v>144.7322755892727</v>
       </c>
       <c r="G12">
-        <v>-48.28821180527007</v>
+        <v>-50.03933720162644</v>
       </c>
       <c r="H12">
-        <v>1232.539350203181</v>
+        <v>1120.760836668799</v>
       </c>
       <c r="I12">
-        <v>-1184.30092689114</v>
+        <v>-1156.759809699467</v>
       </c>
       <c r="J12">
-        <v>1588.286049620534</v>
+        <v>1462.4779067048</v>
       </c>
       <c r="K12">
-        <v>2304.666420631241</v>
+        <v>2278.935159653214</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.1493494152522</v>
+        <v>119.1942093508045</v>
       </c>
       <c r="G13">
-        <v>-35.12891411398553</v>
+        <v>-35.38035423570242</v>
       </c>
       <c r="H13">
-        <v>1227.72145739375</v>
+        <v>1214.389259521233</v>
       </c>
       <c r="I13">
-        <v>-1111.807732801302</v>
+        <v>-1143.179955978122</v>
       </c>
       <c r="J13">
-        <v>1527.656847630012</v>
+        <v>1532.246453744421</v>
       </c>
       <c r="K13">
-        <v>2469.142936046564</v>
+        <v>2404.808182075636</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.0101761334341</v>
+        <v>112.4625864660976</v>
       </c>
       <c r="G14">
-        <v>-17.41489951145158</v>
+        <v>-16.88961939360038</v>
       </c>
       <c r="H14">
-        <v>1268.701664423399</v>
+        <v>1344.095384384622</v>
       </c>
       <c r="I14">
-        <v>-1130.276470140917</v>
+        <v>-1118.414734434624</v>
       </c>
       <c r="J14">
-        <v>1465.763628902314</v>
+        <v>1368.631489310032</v>
       </c>
       <c r="K14">
-        <v>2655.133087389287</v>
+        <v>2514.044096963602</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.0697992300799</v>
+        <v>101.5604042422642</v>
       </c>
       <c r="G15">
-        <v>-0.9022027163531144</v>
+        <v>-0.8878780286881653</v>
       </c>
       <c r="H15">
-        <v>1313.116436446509</v>
+        <v>1386.120742959064</v>
       </c>
       <c r="I15">
-        <v>-1033.059584776741</v>
+        <v>-1086.023813970687</v>
       </c>
       <c r="J15">
-        <v>1375.733705147453</v>
+        <v>1302.201080654027</v>
       </c>
       <c r="K15">
-        <v>2890.418400713518</v>
+        <v>2855.017252226172</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.12090877817586</v>
+        <v>96.71373263018668</v>
       </c>
       <c r="G16">
-        <v>15.04780849239544</v>
+        <v>15.18775985023394</v>
       </c>
       <c r="H16">
-        <v>1381.390787390535</v>
+        <v>1444.775446651496</v>
       </c>
       <c r="I16">
-        <v>-1037.991279009976</v>
+        <v>-1025.879107549788</v>
       </c>
       <c r="J16">
-        <v>1364.753733810625</v>
+        <v>1337.144169280563</v>
       </c>
       <c r="K16">
-        <v>2976.280595056702</v>
+        <v>3009.430749437543</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.58299160571426</v>
+        <v>85.01965830284396</v>
       </c>
       <c r="G17">
-        <v>32.91707544898706</v>
+        <v>31.55247294377555</v>
       </c>
       <c r="H17">
-        <v>1425.318784100728</v>
+        <v>1531.973432505809</v>
       </c>
       <c r="I17">
-        <v>-967.6895174778472</v>
+        <v>-1013.492020191419</v>
       </c>
       <c r="J17">
-        <v>1247.113112896372</v>
+        <v>1303.832965152038</v>
       </c>
       <c r="K17">
-        <v>3050.332492293209</v>
+        <v>3104.590120072384</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.79640145000319</v>
+        <v>78.10333033966322</v>
       </c>
       <c r="G18">
-        <v>49.82233058353674</v>
+        <v>46.83045980446056</v>
       </c>
       <c r="H18">
-        <v>1444.731617212143</v>
+        <v>1484.44707125289</v>
       </c>
       <c r="I18">
-        <v>-956.2460652905954</v>
+        <v>-973.7290924154371</v>
       </c>
       <c r="J18">
-        <v>1254.333208412116</v>
+        <v>1252.890543668875</v>
       </c>
       <c r="K18">
-        <v>3178.101569129662</v>
+        <v>2974.33957434166</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.5046425392311</v>
+        <v>78.56617071573002</v>
       </c>
       <c r="G19">
-        <v>61.92255136111424</v>
+        <v>67.4289106532681</v>
       </c>
       <c r="H19">
-        <v>1545.837970346402</v>
+        <v>1507.184608575801</v>
       </c>
       <c r="I19">
-        <v>-860.9903495008188</v>
+        <v>-915.7217114430184</v>
       </c>
       <c r="J19">
-        <v>1171.945417898287</v>
+        <v>1187.356616163386</v>
       </c>
       <c r="K19">
-        <v>3217.049720430738</v>
+        <v>3054.831398591866</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.37333173254578</v>
+        <v>76.76689817073246</v>
       </c>
       <c r="G20">
-        <v>82.08508381791044</v>
+        <v>77.85495064883968</v>
       </c>
       <c r="H20">
-        <v>1485.944336418421</v>
+        <v>1527.305595876249</v>
       </c>
       <c r="I20">
-        <v>-875.9967082869194</v>
+        <v>-806.9898304311085</v>
       </c>
       <c r="J20">
-        <v>1128.831858025025</v>
+        <v>1075.726521889602</v>
       </c>
       <c r="K20">
-        <v>3008.992285172306</v>
+        <v>3249.383452700688</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.56899963592974</v>
+        <v>72.8587235589668</v>
       </c>
       <c r="G21">
-        <v>97.96264922609495</v>
+        <v>96.87629183986256</v>
       </c>
       <c r="H21">
-        <v>1591.858150214837</v>
+        <v>1622.025659889327</v>
       </c>
       <c r="I21">
-        <v>-797.5556866737376</v>
+        <v>-802.0252346118563</v>
       </c>
       <c r="J21">
-        <v>1036.168810312457</v>
+        <v>1086.98019030421</v>
       </c>
       <c r="K21">
-        <v>3181.624314775166</v>
+        <v>3313.936244367577</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.65101375824894</v>
+        <v>70.07806433042271</v>
       </c>
       <c r="G22">
-        <v>116.4881900245898</v>
+        <v>119.3568706536715</v>
       </c>
       <c r="H22">
-        <v>1633.930253168854</v>
+        <v>1609.208246547717</v>
       </c>
       <c r="I22">
-        <v>-774.5359030024653</v>
+        <v>-738.9425204773967</v>
       </c>
       <c r="J22">
-        <v>1073.27318330797</v>
+        <v>982.0327899708176</v>
       </c>
       <c r="K22">
-        <v>3096.723653538122</v>
+        <v>3070.150622509183</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.64406905375523</v>
+        <v>63.70156967842729</v>
       </c>
       <c r="G23">
-        <v>125.3465208452176</v>
+        <v>128.3141185577632</v>
       </c>
       <c r="H23">
-        <v>1608.416469121732</v>
+        <v>1653.173395934341</v>
       </c>
       <c r="I23">
-        <v>-674.4799883845251</v>
+        <v>-731.4745369611746</v>
       </c>
       <c r="J23">
-        <v>1013.277129951666</v>
+        <v>1002.943769484153</v>
       </c>
       <c r="K23">
-        <v>3069.233523861881</v>
+        <v>3064.307698097069</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.66032448854918</v>
+        <v>66.25439286981305</v>
       </c>
       <c r="G24">
-        <v>141.6555333052163</v>
+        <v>155.04787020239</v>
       </c>
       <c r="H24">
-        <v>1598.777545586584</v>
+        <v>1636.843827585039</v>
       </c>
       <c r="I24">
-        <v>-665.4503828461027</v>
+        <v>-630.5745819238028</v>
       </c>
       <c r="J24">
-        <v>887.2160192926945</v>
+        <v>918.6061181987992</v>
       </c>
       <c r="K24">
-        <v>3047.235506275108</v>
+        <v>3143.748023748746</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.4635191372904</v>
+        <v>63.49337670908231</v>
       </c>
       <c r="G25">
-        <v>167.9740900752391</v>
+        <v>171.0591732999682</v>
       </c>
       <c r="H25">
-        <v>1655.973206615798</v>
+        <v>1715.319941094916</v>
       </c>
       <c r="I25">
-        <v>-596.933541198213</v>
+        <v>-571.965603644585</v>
       </c>
       <c r="J25">
-        <v>906.4258084839037</v>
+        <v>854.942548247333</v>
       </c>
       <c r="K25">
-        <v>3075.325433783215</v>
+        <v>3113.083051299158</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.96233364721402</v>
+        <v>59.17404354601011</v>
       </c>
       <c r="G26">
-        <v>184.2113722391981</v>
+        <v>171.714412474177</v>
       </c>
       <c r="H26">
-        <v>1750.256988034121</v>
+        <v>1735.314651190627</v>
       </c>
       <c r="I26">
-        <v>-554.6493606746961</v>
+        <v>-539.1098572523809</v>
       </c>
       <c r="J26">
-        <v>842.0629939336336</v>
+        <v>862.2366731994084</v>
       </c>
       <c r="K26">
-        <v>3075.604609740656</v>
+        <v>3104.155207769849</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.83339264349776</v>
+        <v>59.67219064269492</v>
       </c>
       <c r="G27">
-        <v>189.2329393492853</v>
+        <v>200.7594992578324</v>
       </c>
       <c r="H27">
-        <v>1720.627210512172</v>
+        <v>1780.110169130607</v>
       </c>
       <c r="I27">
-        <v>-477.8735076192611</v>
+        <v>-506.6700154587065</v>
       </c>
       <c r="J27">
-        <v>786.5848225684367</v>
+        <v>755.0233156883562</v>
       </c>
       <c r="K27">
-        <v>3156.745262263061</v>
+        <v>2936.473071523922</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.4380298511174</v>
+        <v>57.73756930535646</v>
       </c>
       <c r="G28">
-        <v>213.9380869395693</v>
+        <v>223.9244734281344</v>
       </c>
       <c r="H28">
-        <v>1701.236645568717</v>
+        <v>1683.385894651821</v>
       </c>
       <c r="I28">
-        <v>-451.0135737636966</v>
+        <v>-457.0453130546668</v>
       </c>
       <c r="J28">
-        <v>725.4798541221837</v>
+        <v>767.1561450711087</v>
       </c>
       <c r="K28">
-        <v>2911.078667238803</v>
+        <v>3097.729208440413</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.68924397684316</v>
+        <v>52.49454110445296</v>
       </c>
       <c r="G29">
-        <v>225.0654089791328</v>
+        <v>232.8733954011657</v>
       </c>
       <c r="H29">
-        <v>1698.355871839359</v>
+        <v>1757.154468644031</v>
       </c>
       <c r="I29">
-        <v>-369.4972257165323</v>
+        <v>-390.2892599644904</v>
       </c>
       <c r="J29">
-        <v>687.5339228324141</v>
+        <v>685.5793228025545</v>
       </c>
       <c r="K29">
-        <v>2970.317221975872</v>
+        <v>2958.047429357421</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.74351183052485</v>
+        <v>52.01891554433218</v>
       </c>
       <c r="G30">
-        <v>241.8258872168766</v>
+        <v>247.7742263527741</v>
       </c>
       <c r="H30">
-        <v>1787.465974294191</v>
+        <v>1836.547464484966</v>
       </c>
       <c r="I30">
-        <v>-339.4910561805565</v>
+        <v>-331.4379009227068</v>
       </c>
       <c r="J30">
-        <v>651.9221331550627</v>
+        <v>653.5971905927247</v>
       </c>
       <c r="K30">
-        <v>2879.757825523865</v>
+        <v>2675.282826217804</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.50551596261777</v>
+        <v>51.77124965482037</v>
       </c>
       <c r="G31">
-        <v>266.5495054907354</v>
+        <v>273.4855827511575</v>
       </c>
       <c r="H31">
-        <v>1793.697728182409</v>
+        <v>1758.47927663352</v>
       </c>
       <c r="I31">
-        <v>-257.1784259997447</v>
+        <v>-260.5282530948681</v>
       </c>
       <c r="J31">
-        <v>573.7865405992379</v>
+        <v>570.8207455226906</v>
       </c>
       <c r="K31">
-        <v>2608.315288769124</v>
+        <v>2695.785207271982</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.22366353513083</v>
+        <v>53.11199225290584</v>
       </c>
       <c r="G32">
-        <v>272.1172457196054</v>
+        <v>292.8768072408386</v>
       </c>
       <c r="H32">
-        <v>1792.289486315482</v>
+        <v>1702.469968542921</v>
       </c>
       <c r="I32">
-        <v>-212.7494048868842</v>
+        <v>-201.1027765385113</v>
       </c>
       <c r="J32">
-        <v>535.3562194559341</v>
+        <v>517.0970878821793</v>
       </c>
       <c r="K32">
-        <v>2449.440618035504</v>
+        <v>2433.960958402022</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.70085990919213</v>
+        <v>52.14829257570479</v>
       </c>
       <c r="G33">
-        <v>287.7242493802324</v>
+        <v>294.3172809166961</v>
       </c>
       <c r="H33">
-        <v>1827.643905984147</v>
+        <v>1859.028735165524</v>
       </c>
       <c r="I33">
-        <v>-148.7712560012668</v>
+        <v>-149.8539840170668</v>
       </c>
       <c r="J33">
-        <v>479.2255203047858</v>
+        <v>481.9010552520961</v>
       </c>
       <c r="K33">
-        <v>2448.104498760033</v>
+        <v>2305.125282590499</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.35783095121879</v>
+        <v>51.32541793814019</v>
       </c>
       <c r="G34">
-        <v>298.0072306936089</v>
+        <v>323.6301606372725</v>
       </c>
       <c r="H34">
-        <v>1777.345737890744</v>
+        <v>1881.692148779808</v>
       </c>
       <c r="I34">
-        <v>-80.92979856931649</v>
+        <v>-83.50830672310339</v>
       </c>
       <c r="J34">
-        <v>453.0256610928224</v>
+        <v>462.870200364577</v>
       </c>
       <c r="K34">
-        <v>2172.269567564191</v>
+        <v>2105.211707148547</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.80527408267609</v>
+        <v>46.33329726372473</v>
       </c>
       <c r="G35">
-        <v>329.1679172510779</v>
+        <v>315.1347618498298</v>
       </c>
       <c r="H35">
-        <v>1869.179938422454</v>
+        <v>1840.989144238256</v>
       </c>
       <c r="I35">
-        <v>-18.87877815078609</v>
+        <v>-18.988683452228</v>
       </c>
       <c r="J35">
-        <v>380.7082730720749</v>
+        <v>379.036294688397</v>
       </c>
       <c r="K35">
-        <v>2016.568804456999</v>
+        <v>2042.593216333483</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.29720704565788</v>
+        <v>45.71210955123833</v>
       </c>
       <c r="G36">
-        <v>361.414885446796</v>
+        <v>345.9797049703602</v>
       </c>
       <c r="H36">
-        <v>1774.630858651037</v>
+        <v>1829.613475877821</v>
       </c>
       <c r="I36">
-        <v>47.72715101000292</v>
+        <v>46.2140678960597</v>
       </c>
       <c r="J36">
-        <v>353.327005119232</v>
+        <v>331.38492954292</v>
       </c>
       <c r="K36">
-        <v>1750.447803418028</v>
+        <v>1916.645446575268</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.86094207009358</v>
+        <v>45.40180069084963</v>
       </c>
       <c r="G37">
-        <v>351.8029276334978</v>
+        <v>353.5128983575656</v>
       </c>
       <c r="H37">
-        <v>1798.796429603746</v>
+        <v>1786.455457552034</v>
       </c>
       <c r="I37">
-        <v>119.0770525201771</v>
+        <v>113.6236352431813</v>
       </c>
       <c r="J37">
-        <v>310.4383135231724</v>
+        <v>302.487939979256</v>
       </c>
       <c r="K37">
-        <v>1582.974370087174</v>
+        <v>1612.097577588553</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.29611064547775</v>
+        <v>43.65281264821697</v>
       </c>
       <c r="G38">
-        <v>380.8876507617202</v>
+        <v>362.5404188644374</v>
       </c>
       <c r="H38">
-        <v>1888.289083482464</v>
+        <v>1761.325326483637</v>
       </c>
       <c r="I38">
-        <v>182.0799709722256</v>
+        <v>188.6950064517634</v>
       </c>
       <c r="J38">
-        <v>241.4302320546799</v>
+        <v>252.1680222883317</v>
       </c>
       <c r="K38">
-        <v>1443.026335899476</v>
+        <v>1436.306774285239</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>47.07871879528393</v>
+        <v>45.85809139486807</v>
       </c>
       <c r="G39">
-        <v>389.7454835986723</v>
+        <v>383.1456351763398</v>
       </c>
       <c r="H39">
-        <v>1910.778487351548</v>
+        <v>1813.812992978696</v>
       </c>
       <c r="I39">
-        <v>250.1414811804741</v>
+        <v>252.1018164651567</v>
       </c>
       <c r="J39">
-        <v>204.7289375542302</v>
+        <v>191.9682489148252</v>
       </c>
       <c r="K39">
-        <v>1197.369437424078</v>
+        <v>1194.757805955521</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.9333562998619</v>
+        <v>46.39613916413919</v>
       </c>
       <c r="G40">
-        <v>394.1104954244399</v>
+        <v>422.7847184745462</v>
       </c>
       <c r="H40">
-        <v>1870.572396304118</v>
+        <v>1885.652470086126</v>
       </c>
       <c r="I40">
-        <v>336.3193320695037</v>
+        <v>338.3537833915578</v>
       </c>
       <c r="J40">
-        <v>149.2002263330235</v>
+        <v>155.503252898357</v>
       </c>
       <c r="K40">
-        <v>909.6612486451717</v>
+        <v>920.7157486264058</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.20625723017135</v>
+        <v>43.49889697296342</v>
       </c>
       <c r="G41">
-        <v>445.0663950435061</v>
+        <v>420.4390042855046</v>
       </c>
       <c r="H41">
-        <v>1919.955061775015</v>
+        <v>1961.622975249713</v>
       </c>
       <c r="I41">
-        <v>386.5615435754811</v>
+        <v>388.8108095124526</v>
       </c>
       <c r="J41">
-        <v>103.1719682331857</v>
+        <v>100.3684157200798</v>
       </c>
       <c r="K41">
-        <v>633.4929684407371</v>
+        <v>596.4740640593603</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.94717776158789</v>
+        <v>44.2763040067666</v>
       </c>
       <c r="G42">
-        <v>423.1249362254638</v>
+        <v>435.2721717162658</v>
       </c>
       <c r="H42">
-        <v>1809.293532778489</v>
+        <v>1803.903006700163</v>
       </c>
       <c r="I42">
-        <v>477.2634912634754</v>
+        <v>480.143612175486</v>
       </c>
       <c r="J42">
-        <v>55.86635849856175</v>
+        <v>54.06770614609735</v>
       </c>
       <c r="K42">
-        <v>331.6880313457251</v>
+        <v>344.1427473153956</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.46481462570486</v>
+        <v>41.91969909999191</v>
       </c>
       <c r="G43">
-        <v>466.4689157234127</v>
+        <v>445.4346944457301</v>
       </c>
       <c r="H43">
-        <v>1864.559584216696</v>
+        <v>1841.046518891716</v>
       </c>
       <c r="I43">
-        <v>540.3675045916676</v>
+        <v>566.4665622369337</v>
       </c>
       <c r="J43">
-        <v>5.435748346195628</v>
+        <v>5.447784336332189</v>
       </c>
       <c r="K43">
-        <v>34.33394192327985</v>
+        <v>33.25354860325712</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.38582119809621</v>
+        <v>40.41315714687554</v>
       </c>
       <c r="G44">
-        <v>458.1174721666736</v>
+        <v>473.3722188817713</v>
       </c>
       <c r="H44">
-        <v>1900.16595019948</v>
+        <v>1930.251263127578</v>
       </c>
       <c r="I44">
-        <v>626.8396128702049</v>
+        <v>647.9243158156986</v>
       </c>
       <c r="J44">
-        <v>-44.21131195742596</v>
+        <v>-44.28379230875657</v>
       </c>
       <c r="K44">
-        <v>-278.5179861712772</v>
+        <v>-276.8581682283491</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.08016836889633</v>
+        <v>42.88779064889216</v>
       </c>
       <c r="G45">
-        <v>470.8716474779201</v>
+        <v>478.568715419648</v>
       </c>
       <c r="H45">
-        <v>1852.708638026668</v>
+        <v>1877.192963083153</v>
       </c>
       <c r="I45">
-        <v>746.3963110367993</v>
+        <v>704.1481111273238</v>
       </c>
       <c r="J45">
-        <v>-88.75515439458691</v>
+        <v>-95.34492723418666</v>
       </c>
       <c r="K45">
-        <v>-630.3931865223234</v>
+        <v>-593.8925661895269</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.97243165818342</v>
+        <v>38.8601980567426</v>
       </c>
       <c r="G46">
-        <v>495.2147947013961</v>
+        <v>491.8073547994556</v>
       </c>
       <c r="H46">
-        <v>1866.319438894658</v>
+        <v>1894.743438935181</v>
       </c>
       <c r="I46">
-        <v>829.9965731759935</v>
+        <v>803.2876333837413</v>
       </c>
       <c r="J46">
-        <v>-146.1321810401247</v>
+        <v>-139.528211816597</v>
       </c>
       <c r="K46">
-        <v>-994.6085583338531</v>
+        <v>-993.7559968266584</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.36654063623437</v>
+        <v>41.01454472055111</v>
       </c>
       <c r="G47">
-        <v>543.1132859657019</v>
+        <v>501.5369076130686</v>
       </c>
       <c r="H47">
-        <v>1892.570951703459</v>
+        <v>1968.143902870752</v>
       </c>
       <c r="I47">
-        <v>863.2157609252282</v>
+        <v>919.5572389299348</v>
       </c>
       <c r="J47">
-        <v>-189.1561918670492</v>
+        <v>-191.4779494434383</v>
       </c>
       <c r="K47">
-        <v>-1391.701091153086</v>
+        <v>-1284.535822261605</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.76100512781726</v>
+        <v>39.18971778065681</v>
       </c>
       <c r="G48">
-        <v>550.3987690914562</v>
+        <v>536.609954262085</v>
       </c>
       <c r="H48">
-        <v>1968.700100176758</v>
+        <v>1934.308586978065</v>
       </c>
       <c r="I48">
-        <v>950.0533863261447</v>
+        <v>1026.641586433489</v>
       </c>
       <c r="J48">
-        <v>-233.9152522961231</v>
+        <v>-245.2413446344887</v>
       </c>
       <c r="K48">
-        <v>-1725.838251441525</v>
+        <v>-1647.3355614063</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.42365718039503</v>
+        <v>38.20898427742634</v>
       </c>
       <c r="G49">
-        <v>533.380085281533</v>
+        <v>565.1316143378657</v>
       </c>
       <c r="H49">
-        <v>1918.732650690063</v>
+        <v>1973.6630050477</v>
       </c>
       <c r="I49">
-        <v>1084.468426223413</v>
+        <v>1036.900301490145</v>
       </c>
       <c r="J49">
-        <v>-287.0794424619531</v>
+        <v>-298.0488610295096</v>
       </c>
       <c r="K49">
-        <v>-2174.874166088006</v>
+        <v>-2123.342739225156</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.13938365630798</v>
+        <v>37.75430351324312</v>
       </c>
       <c r="G50">
-        <v>566.4271620034984</v>
+        <v>587.022422305234</v>
       </c>
       <c r="H50">
-        <v>1971.071181298161</v>
+        <v>1979.521294850309</v>
       </c>
       <c r="I50">
-        <v>1196.417493763745</v>
+        <v>1119.553399754328</v>
       </c>
       <c r="J50">
-        <v>-349.5668349913816</v>
+        <v>-349.1881922510174</v>
       </c>
       <c r="K50">
-        <v>-2384.908433592338</v>
+        <v>-2429.034597512697</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.56997584121825</v>
+        <v>36.8614832063802</v>
       </c>
       <c r="G51">
-        <v>611.287829696452</v>
+        <v>600.2565889823852</v>
       </c>
       <c r="H51">
-        <v>1937.978932610754</v>
+        <v>1915.623014155701</v>
       </c>
       <c r="I51">
-        <v>1316.529329836828</v>
+        <v>1296.674503117896</v>
       </c>
       <c r="J51">
-        <v>-366.2800945512798</v>
+        <v>-369.1835685080001</v>
       </c>
       <c r="K51">
-        <v>-3023.449639852941</v>
+        <v>-3012.376581575073</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.37196765845554</v>
+        <v>39.29184551500648</v>
       </c>
       <c r="G52">
-        <v>611.2468085543134</v>
+        <v>592.3537857225026</v>
       </c>
       <c r="H52">
-        <v>1916.697011359577</v>
+        <v>1916.713193757673</v>
       </c>
       <c r="I52">
-        <v>1420.366294953284</v>
+        <v>1353.326232613988</v>
       </c>
       <c r="J52">
-        <v>-436.4827322204389</v>
+        <v>-426.0147293261774</v>
       </c>
       <c r="K52">
-        <v>-3378.664606409731</v>
+        <v>-3201.620007817505</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.08832098744203</v>
+        <v>36.74666181552833</v>
       </c>
       <c r="G53">
-        <v>644.9566362159364</v>
+        <v>636.6353884805048</v>
       </c>
       <c r="H53">
-        <v>2069.518014425674</v>
+        <v>1878.852422036418</v>
       </c>
       <c r="I53">
-        <v>1423.560091659619</v>
+        <v>1416.29767769054</v>
       </c>
       <c r="J53">
-        <v>-502.5114560205258</v>
+        <v>-492.9819227997857</v>
       </c>
       <c r="K53">
-        <v>-3910.458604924718</v>
+        <v>-3892.891609701949</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.74773273410037</v>
+        <v>35.09324868511991</v>
       </c>
       <c r="G54">
-        <v>649.1715095254469</v>
+        <v>617.6627543890196</v>
       </c>
       <c r="H54">
-        <v>2068.77379593047</v>
+        <v>2019.15510424525</v>
       </c>
       <c r="I54">
-        <v>1610.206105293357</v>
+        <v>1535.274802097745</v>
       </c>
       <c r="J54">
-        <v>-541.8721181585767</v>
+        <v>-523.7913702828381</v>
       </c>
       <c r="K54">
-        <v>-4183.184276720771</v>
+        <v>-4338.86013455773</v>
       </c>
     </row>
   </sheetData>
